--- a/templates/Survey_Structure_Template.xlsx
+++ b/templates/Survey_Structure_Template.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/R_SurveyAnalytics_Toolkit/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB5228-221A-B04D-B370-F08EE246120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933128BA-DECE-0A48-B074-754BE0C10000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="3620" windowWidth="25840" windowHeight="18460" activeTab="1" xr2:uid="{CF159993-606F-1549-8B56-F2A6EA7A5F6E}"/>
+    <workbookView xWindow="24220" yWindow="500" windowWidth="25840" windowHeight="18460" activeTab="3" xr2:uid="{CF159993-606F-1549-8B56-F2A6EA7A5F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
     <sheet name="Options" sheetId="3" r:id="rId3"/>
+    <sheet name="Composite_Metrics" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
   <si>
     <t>Setting</t>
   </si>
@@ -1450,13 +1451,88 @@
   </si>
   <si>
     <t>Numeric only</t>
+  </si>
+  <si>
+    <t>CompositeCode</t>
+  </si>
+  <si>
+    <t>CompositeLabel</t>
+  </si>
+  <si>
+    <t>CalculationType</t>
+  </si>
+  <si>
+    <t>SourceQuestions</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>ExcludeFromSummary</t>
+  </si>
+  <si>
+    <t>SectionLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique identifier for this composite. </t>
+  </si>
+  <si>
+    <t>Must start with COMP_ (recommended convention)</t>
+  </si>
+  <si>
+    <t>COMP_SAT_OVERALL</t>
+  </si>
+  <si>
+    <t>The display name that appears in reports</t>
+  </si>
+  <si>
+    <t>Overall Satisfaction Index</t>
+  </si>
+  <si>
+    <t>Must be one of: Mean, Sum, or WeightedMean</t>
+  </si>
+  <si>
+    <t>Mean, Sum, or WeightedMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All questions must exist in your Questions sheet. All questions must be the same type (all Rating, or all Likert, or all Numeric). </t>
+  </si>
+  <si>
+    <t>Q01,Q02,Q03</t>
+  </si>
+  <si>
+    <t>omma-separated list of question codes to combine.</t>
+  </si>
+  <si>
+    <t>Only if CalculationType is WeightedMean</t>
+  </si>
+  <si>
+    <t>1,2,1 (gives Q02 twice the weight of Q01 and Q03)</t>
+  </si>
+  <si>
+    <t>Comma-separated numbers matching the number of SourceQuestions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Higher numbers = more weight in the calculation</t>
+  </si>
+  <si>
+    <t>Enter Y to hide this composite from the Index_Summary sheet. Leave blank to include in summary (default)</t>
+  </si>
+  <si>
+    <t>Groups related composites in the Index_Summary sheet</t>
+  </si>
+  <si>
+    <t>Satisfaction ratings</t>
+  </si>
+  <si>
+    <t>Internal note. Not used by Turas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1546,6 +1622,12 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1573,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1587,6 +1669,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2156,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4896C7-CF56-AD49-B8D8-3BBC8846B539}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2589,7 +2675,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2758,4 +2844,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10790B0-7BAD-DE49-8DC3-B236C814AF7B}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="9" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>